--- a/Assets/Resources/MasterData/FloorData.xlsx
+++ b/Assets/Resources/MasterData/FloorData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲーム開発Ⅳ\UnityProject\2DRoguelikeSubject\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031724A3-8F65-4A22-AAFF-F0FAB25BE9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39435F12-8244-41F6-A10E-EAF5EC37CE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="-15390" windowWidth="12465" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="-15645" windowWidth="12465" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FloorData" sheetId="1" r:id="rId1"/>
@@ -380,9 +380,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -411,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -419,62 +421,6 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
         <v>2</v>
       </c>
     </row>
